--- a/Code/Results/Cases/Case_0_243/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_243/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1637255862105889</v>
+        <v>0.3256646321388814</v>
       </c>
       <c r="D2">
-        <v>0.00772496371945941</v>
+        <v>0.01125752210194619</v>
       </c>
       <c r="E2">
-        <v>0.0284154754210828</v>
+        <v>0.1217552071829093</v>
       </c>
       <c r="F2">
-        <v>0.9741159289978469</v>
+        <v>0.7931065201222935</v>
       </c>
       <c r="G2">
-        <v>0.928687027615112</v>
+        <v>0.6514338298070754</v>
       </c>
       <c r="H2">
-        <v>0.5144323392239301</v>
+        <v>0.6938152394459394</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.02675055799205595</v>
+        <v>0.1047364062361815</v>
       </c>
       <c r="M2">
-        <v>2.732855194127367</v>
+        <v>1.098681838835375</v>
       </c>
       <c r="N2">
-        <v>4.039975140443346</v>
+        <v>1.793565731190284</v>
       </c>
       <c r="O2">
-        <v>2.998210682232781</v>
+        <v>2.679343611211209</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.153874462833528</v>
+        <v>0.3269899379945969</v>
       </c>
       <c r="D3">
-        <v>0.007276106113744518</v>
+        <v>0.0111022946356627</v>
       </c>
       <c r="E3">
-        <v>0.03056576866524718</v>
+        <v>0.1240207849380939</v>
       </c>
       <c r="F3">
-        <v>0.8592904584956784</v>
+        <v>0.7703493223745141</v>
       </c>
       <c r="G3">
-        <v>0.8139891069959759</v>
+        <v>0.6277865032679273</v>
       </c>
       <c r="H3">
-        <v>0.4667152757123034</v>
+        <v>0.6875998781628567</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.02937808525371466</v>
+        <v>0.1066407583515812</v>
       </c>
       <c r="M3">
-        <v>2.38256239151481</v>
+        <v>0.9873498382050201</v>
       </c>
       <c r="N3">
-        <v>3.599403245264227</v>
+        <v>1.648381501539035</v>
       </c>
       <c r="O3">
-        <v>2.654701208039626</v>
+        <v>2.615801535586371</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.148298269919934</v>
+        <v>0.3280252179163341</v>
       </c>
       <c r="D4">
-        <v>0.006999674317635041</v>
+        <v>0.01100670368832724</v>
       </c>
       <c r="E4">
-        <v>0.0320593860679832</v>
+        <v>0.1255002352143997</v>
       </c>
       <c r="F4">
-        <v>0.7904105800780599</v>
+        <v>0.7569334786185493</v>
       </c>
       <c r="G4">
-        <v>0.7451827556488269</v>
+        <v>0.6137601379654853</v>
       </c>
       <c r="H4">
-        <v>0.4383568607116359</v>
+        <v>0.6841965732360364</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.03110941323032534</v>
+        <v>0.1078781147655175</v>
       </c>
       <c r="M4">
-        <v>2.167212280457974</v>
+        <v>0.9188200035312377</v>
       </c>
       <c r="N4">
-        <v>3.329455276119859</v>
+        <v>1.559417443217882</v>
       </c>
       <c r="O4">
-        <v>2.449169334811103</v>
+        <v>2.578681299817674</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1461365797269139</v>
+        <v>0.3285026734227614</v>
       </c>
       <c r="D5">
-        <v>0.006886799155115142</v>
+        <v>0.01096768421183825</v>
       </c>
       <c r="E5">
-        <v>0.0327092494746406</v>
+        <v>0.1261252826731125</v>
       </c>
       <c r="F5">
-        <v>0.7627108057295828</v>
+        <v>0.751606110585783</v>
       </c>
       <c r="G5">
-        <v>0.7175097819598193</v>
+        <v>0.6081677544764972</v>
       </c>
       <c r="H5">
-        <v>0.4270180411213289</v>
+        <v>0.6829134068727996</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.03184343034929604</v>
+        <v>0.1083994460922746</v>
       </c>
       <c r="M5">
-        <v>2.079373900334659</v>
+        <v>0.8908530145642288</v>
       </c>
       <c r="N5">
-        <v>3.219573557471335</v>
+        <v>1.523213347888429</v>
       </c>
       <c r="O5">
-        <v>2.366641144456423</v>
+        <v>2.564029542699529</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1457840864098188</v>
+        <v>0.3285853068774856</v>
       </c>
       <c r="D6">
-        <v>0.006868042201006119</v>
+        <v>0.010961201261658</v>
       </c>
       <c r="E6">
-        <v>0.03281957998253748</v>
+        <v>0.1262304078454166</v>
       </c>
       <c r="F6">
-        <v>0.7581324940381791</v>
+        <v>0.7507299307017377</v>
       </c>
       <c r="G6">
-        <v>0.7129356748224183</v>
+        <v>0.6072465851927262</v>
       </c>
       <c r="H6">
-        <v>0.4251478419589887</v>
+        <v>0.6827065979625786</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.03196700027979382</v>
+        <v>0.1084870448950515</v>
       </c>
       <c r="M6">
-        <v>2.064783110985076</v>
+        <v>0.8862067467534729</v>
       </c>
       <c r="N6">
-        <v>3.201334805188651</v>
+        <v>1.517204801562428</v>
       </c>
       <c r="O6">
-        <v>2.353008008568821</v>
+        <v>2.561625279032029</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1482686790098313</v>
+        <v>0.3280314322257993</v>
       </c>
       <c r="D7">
-        <v>0.006998152982083283</v>
+        <v>0.01100617771652956</v>
       </c>
       <c r="E7">
-        <v>0.03206798658545473</v>
+        <v>0.1255085751847158</v>
       </c>
       <c r="F7">
-        <v>0.7900355654907543</v>
+        <v>0.7568610667830455</v>
       </c>
       <c r="G7">
-        <v>0.7448081177981152</v>
+        <v>0.6136842179023319</v>
       </c>
       <c r="H7">
-        <v>0.4382030850789675</v>
+        <v>0.6841788482743283</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.03111919862513091</v>
+        <v>0.1078850764178281</v>
       </c>
       <c r="M7">
-        <v>2.166028008295854</v>
+        <v>0.9184429915554801</v>
       </c>
       <c r="N7">
-        <v>3.327972891767018</v>
+        <v>1.558928976037038</v>
       </c>
       <c r="O7">
-        <v>2.448051520999172</v>
+        <v>2.578481779589254</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1602258160658323</v>
+        <v>0.3260755347638025</v>
       </c>
       <c r="D8">
-        <v>0.007570357357588264</v>
+        <v>0.01120406096328885</v>
       </c>
       <c r="E8">
-        <v>0.02911944945908829</v>
+        <v>0.1225179979496591</v>
       </c>
       <c r="F8">
-        <v>0.9341629787914343</v>
+        <v>0.7851439437247762</v>
       </c>
       <c r="G8">
-        <v>0.8887778292796469</v>
+        <v>0.6431775349374789</v>
       </c>
       <c r="H8">
-        <v>0.4977726177528723</v>
+        <v>0.6915863909422484</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.02763130052204765</v>
+        <v>0.1053788857672817</v>
       </c>
       <c r="M8">
-        <v>2.612121096556308</v>
+        <v>1.060331694352371</v>
       </c>
       <c r="N8">
-        <v>3.887937243436625</v>
+        <v>1.743471444944987</v>
       </c>
       <c r="O8">
-        <v>2.878572584185065</v>
+        <v>2.657040133589987</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.18781484831662</v>
+        <v>0.3240042782072408</v>
       </c>
       <c r="D9">
-        <v>0.008687072200654455</v>
+        <v>0.01158967540727573</v>
       </c>
       <c r="E9">
-        <v>0.02482640247209833</v>
+        <v>0.1173574690164916</v>
       </c>
       <c r="F9">
-        <v>1.231570844819615</v>
+        <v>0.8450497950826872</v>
       </c>
       <c r="G9">
-        <v>1.185933981679284</v>
+        <v>0.7049553397110628</v>
       </c>
       <c r="H9">
-        <v>0.6229685116185237</v>
+        <v>0.709396879391619</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.02178459405878996</v>
+        <v>0.1010052377591215</v>
       </c>
       <c r="M9">
-        <v>3.485532039302868</v>
+        <v>1.337112848595339</v>
       </c>
       <c r="N9">
-        <v>4.991468100942882</v>
+        <v>2.106614947438516</v>
       </c>
       <c r="O9">
-        <v>3.771691180067933</v>
+        <v>2.826204250012438</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2111961934544837</v>
+        <v>0.3235674214380992</v>
       </c>
       <c r="D10">
-        <v>0.00950666611733908</v>
+        <v>0.01187125436973346</v>
       </c>
       <c r="E10">
-        <v>0.02274852942529648</v>
+        <v>0.1139988574648036</v>
       </c>
       <c r="F10">
-        <v>1.461944587747183</v>
+        <v>0.8918079835397492</v>
       </c>
       <c r="G10">
-        <v>1.416303176915619</v>
+        <v>0.752790963821667</v>
       </c>
       <c r="H10">
-        <v>0.7214516933501329</v>
+        <v>0.7244977131446433</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.01817813210447206</v>
+        <v>0.09812276530411523</v>
       </c>
       <c r="M10">
-        <v>4.12765256006297</v>
+        <v>1.539456627227068</v>
       </c>
       <c r="N10">
-        <v>5.807117789871313</v>
+        <v>2.37398452997229</v>
       </c>
       <c r="O10">
-        <v>4.466947916599167</v>
+        <v>2.959824487267838</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2226511015670667</v>
+        <v>0.3236063077427076</v>
       </c>
       <c r="D11">
-        <v>0.009880096637598257</v>
+        <v>0.01199892609499287</v>
       </c>
       <c r="E11">
-        <v>0.02207752845124134</v>
+        <v>0.1125657059727239</v>
       </c>
       <c r="F11">
-        <v>1.570025415211319</v>
+        <v>0.9136838764056563</v>
       </c>
       <c r="G11">
-        <v>1.524457460008989</v>
+        <v>0.7750940202518564</v>
       </c>
       <c r="H11">
-        <v>0.7680076924579282</v>
+        <v>0.7318081516062023</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.01670723771904115</v>
+        <v>0.09688352189750304</v>
       </c>
       <c r="M11">
-        <v>4.420192993844068</v>
+        <v>1.631266146435351</v>
       </c>
       <c r="N11">
-        <v>6.179634310471329</v>
+        <v>2.495701865710714</v>
       </c>
       <c r="O11">
-        <v>4.794002837576613</v>
+        <v>3.022666468516093</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.227119499089099</v>
+        <v>0.3236553619494487</v>
       </c>
       <c r="D12">
-        <v>0.01002167159804657</v>
+        <v>0.01204720702078887</v>
       </c>
       <c r="E12">
-        <v>0.02186657840111117</v>
+        <v>0.1120366948078901</v>
       </c>
       <c r="F12">
-        <v>1.611489045627295</v>
+        <v>0.9220553050908507</v>
       </c>
       <c r="G12">
-        <v>1.565963198939812</v>
+        <v>0.783618290089521</v>
       </c>
       <c r="H12">
-        <v>0.7859210410353796</v>
+        <v>0.734640036999366</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01617649333633686</v>
+        <v>0.09642463015339331</v>
       </c>
       <c r="M12">
-        <v>4.531063495439241</v>
+        <v>1.665995493411202</v>
       </c>
       <c r="N12">
-        <v>6.320943208469998</v>
+        <v>2.54180213172998</v>
       </c>
       <c r="O12">
-        <v>4.919609096643057</v>
+        <v>3.046760836045053</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2261511196054329</v>
+        <v>0.3236432679117058</v>
       </c>
       <c r="D13">
-        <v>0.009991172100150436</v>
+        <v>0.01203681185804584</v>
       </c>
       <c r="E13">
-        <v>0.02191002910712925</v>
+        <v>0.1121500166705092</v>
       </c>
       <c r="F13">
-        <v>1.602534203831979</v>
+        <v>0.9202484691975457</v>
       </c>
       <c r="G13">
-        <v>1.556998593976772</v>
+        <v>0.7817789314794084</v>
       </c>
       <c r="H13">
-        <v>0.7820499397844856</v>
+        <v>0.7340273093564633</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.01628960006334168</v>
+        <v>0.09652299846802137</v>
       </c>
       <c r="M13">
-        <v>4.507180964362561</v>
+        <v>1.658517592968195</v>
       </c>
       <c r="N13">
-        <v>6.290498352070188</v>
+        <v>2.531873302547183</v>
       </c>
       <c r="O13">
-        <v>4.892475852339544</v>
+        <v>3.041558426959682</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2230160222104729</v>
+        <v>0.3236096545435458</v>
       </c>
       <c r="D14">
-        <v>0.00989174026898354</v>
+        <v>0.01200289953896316</v>
       </c>
       <c r="E14">
-        <v>0.02205928646863775</v>
+        <v>0.1125219090647676</v>
       </c>
       <c r="F14">
-        <v>1.573425529212329</v>
+        <v>0.9143708425951615</v>
       </c>
       <c r="G14">
-        <v>1.527860730863722</v>
+        <v>0.7757937386817275</v>
       </c>
       <c r="H14">
-        <v>0.7694755616203111</v>
+        <v>0.7320398573035618</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.01666303582261008</v>
+        <v>0.09684556034711278</v>
       </c>
       <c r="M14">
-        <v>4.429312357526314</v>
+        <v>1.634124106424579</v>
       </c>
       <c r="N14">
-        <v>6.191254767816019</v>
+        <v>2.49949441552809</v>
       </c>
       <c r="O14">
-        <v>4.804300054834698</v>
+        <v>3.024642755575428</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2211131056711935</v>
+        <v>0.3235935407664243</v>
       </c>
       <c r="D15">
-        <v>0.009830859549285975</v>
+        <v>0.01198211857109399</v>
       </c>
       <c r="E15">
-        <v>0.02215644474745204</v>
+        <v>0.1127514892455563</v>
       </c>
       <c r="F15">
-        <v>1.555667390779561</v>
+        <v>0.9107820355081486</v>
       </c>
       <c r="G15">
-        <v>1.51008668316706</v>
+        <v>0.7721378871143827</v>
       </c>
       <c r="H15">
-        <v>0.7618113002325231</v>
+        <v>0.7308307706301491</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.01689525211303433</v>
+        <v>0.09704449180687647</v>
       </c>
       <c r="M15">
-        <v>4.381628466170881</v>
+        <v>1.619177501565929</v>
       </c>
       <c r="N15">
-        <v>6.130498147167089</v>
+        <v>2.479662398605569</v>
       </c>
       <c r="O15">
-        <v>4.750525227324545</v>
+        <v>3.014320206145214</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2104651432749733</v>
+        <v>0.323569675219602</v>
       </c>
       <c r="D16">
-        <v>0.009482279899053481</v>
+        <v>0.01186290182552341</v>
       </c>
       <c r="E16">
-        <v>0.0227982094246677</v>
+        <v>0.1140944292346324</v>
       </c>
       <c r="F16">
-        <v>1.454952621380926</v>
+        <v>0.8903905625460027</v>
       </c>
       <c r="G16">
-        <v>1.409308214842127</v>
+        <v>0.7513443714357493</v>
       </c>
       <c r="H16">
-        <v>0.7184470727854944</v>
+        <v>0.7240288469284621</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.01827782803376898</v>
+        <v>0.09820520415882328</v>
       </c>
       <c r="M16">
-        <v>4.108545535206432</v>
+        <v>1.533451641228893</v>
       </c>
       <c r="N16">
-        <v>5.782805365149216</v>
+        <v>2.366031447033038</v>
       </c>
       <c r="O16">
-        <v>4.445808324201892</v>
+        <v>2.955759155130806</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2041515046590092</v>
+        <v>0.3236160070926104</v>
       </c>
       <c r="D17">
-        <v>0.009268640730383026</v>
+        <v>0.011789654931043</v>
       </c>
       <c r="E17">
-        <v>0.02326469468764714</v>
+        <v>0.1149425869400522</v>
       </c>
       <c r="F17">
-        <v>1.394051663969833</v>
+        <v>0.8780364230754003</v>
       </c>
       <c r="G17">
-        <v>1.348389852017732</v>
+        <v>0.7387275626851419</v>
       </c>
       <c r="H17">
-        <v>0.6923154262532307</v>
+        <v>0.7199691541858897</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.01917072806114994</v>
+        <v>0.09893572647128579</v>
       </c>
       <c r="M17">
-        <v>3.941149307501007</v>
+        <v>1.480798766354724</v>
       </c>
       <c r="N17">
-        <v>5.56990703520205</v>
+        <v>2.296342383404124</v>
       </c>
       <c r="O17">
-        <v>4.261776932231328</v>
+        <v>2.920361958488229</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2005962802074777</v>
+        <v>0.3236650117817561</v>
       </c>
       <c r="D18">
-        <v>0.009145811216193067</v>
+        <v>0.01174748603218134</v>
       </c>
       <c r="E18">
-        <v>0.02355857775102699</v>
+        <v>0.1154393337368829</v>
       </c>
       <c r="F18">
-        <v>1.359327876603203</v>
+        <v>0.870987600827732</v>
       </c>
       <c r="G18">
-        <v>1.31366293611768</v>
+        <v>0.7315217249786485</v>
       </c>
       <c r="H18">
-        <v>0.6774484015086557</v>
+        <v>0.7176756246110472</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.01970015480189424</v>
+        <v>0.09936267958444311</v>
       </c>
       <c r="M18">
-        <v>3.844906569491386</v>
+        <v>1.450492016777929</v>
       </c>
       <c r="N18">
-        <v>5.447590059118056</v>
+        <v>2.256267763270557</v>
       </c>
       <c r="O18">
-        <v>4.156928007365707</v>
+        <v>2.900195988774328</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1994052551403627</v>
+        <v>0.3236854386886279</v>
       </c>
       <c r="D19">
-        <v>0.009104229710899858</v>
+        <v>0.0117332017902676</v>
       </c>
       <c r="E19">
-        <v>0.02366236554406775</v>
+        <v>0.1156090515069712</v>
       </c>
       <c r="F19">
-        <v>1.347621506728544</v>
+        <v>0.8686107585181446</v>
       </c>
       <c r="G19">
-        <v>1.30195659040109</v>
+        <v>0.7290906963713439</v>
       </c>
       <c r="H19">
-        <v>0.6724418104287508</v>
+        <v>0.7169061972325892</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.01988207863657365</v>
+        <v>0.09950840150415807</v>
       </c>
       <c r="M19">
-        <v>3.812326331290876</v>
+        <v>1.440226941783024</v>
       </c>
       <c r="N19">
-        <v>5.406198121620491</v>
+        <v>2.242700810086319</v>
       </c>
       <c r="O19">
-        <v>4.121593880185458</v>
+        <v>2.893401333308702</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.204815624134838</v>
+        <v>0.3236087600837578</v>
       </c>
       <c r="D20">
-        <v>0.009291377279932789</v>
+        <v>0.01179745628564532</v>
       </c>
       <c r="E20">
-        <v>0.02321236390783099</v>
+        <v>0.1148513765232364</v>
       </c>
       <c r="F20">
-        <v>1.40050268282809</v>
+        <v>0.8793456447120036</v>
       </c>
       <c r="G20">
-        <v>1.35484198769467</v>
+        <v>0.7400653591692503</v>
       </c>
       <c r="H20">
-        <v>0.6950800767654925</v>
+        <v>0.7203970192811084</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.01907402355164578</v>
+        <v>0.09885725962883996</v>
       </c>
       <c r="M20">
-        <v>3.958964672056695</v>
+        <v>1.48640607322973</v>
       </c>
       <c r="N20">
-        <v>5.592556067635826</v>
+        <v>2.303760035741561</v>
       </c>
       <c r="O20">
-        <v>4.281262338819431</v>
+        <v>2.924110005931993</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2239332210272096</v>
+        <v>0.3236185946527854</v>
       </c>
       <c r="D21">
-        <v>0.009920940607951678</v>
+        <v>0.01201286223054154</v>
       </c>
       <c r="E21">
-        <v>0.02201424398200302</v>
+        <v>0.1124123030544153</v>
       </c>
       <c r="F21">
-        <v>1.581960374500042</v>
+        <v>0.9160948655848102</v>
       </c>
       <c r="G21">
-        <v>1.536403732407848</v>
+        <v>0.7775495973579609</v>
       </c>
       <c r="H21">
-        <v>0.7731610014195098</v>
+        <v>0.732621893241884</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.01655262075981767</v>
+        <v>0.09675053409068468</v>
       </c>
       <c r="M21">
-        <v>4.452181513825636</v>
+        <v>1.641290088677991</v>
       </c>
       <c r="N21">
-        <v>6.220398085854754</v>
+        <v>2.50900468162348</v>
       </c>
       <c r="O21">
-        <v>4.830149969448769</v>
+        <v>3.029603212090478</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2371961837495888</v>
+        <v>0.3238251912401893</v>
       </c>
       <c r="D22">
-        <v>0.01033340845373587</v>
+        <v>0.01215325782645138</v>
       </c>
       <c r="E22">
-        <v>0.02148462414862173</v>
+        <v>0.11089807099982</v>
       </c>
       <c r="F22">
-        <v>1.703710317476791</v>
+        <v>0.9406228505335434</v>
       </c>
       <c r="G22">
-        <v>1.658306859909516</v>
+        <v>0.8025060510166213</v>
       </c>
       <c r="H22">
-        <v>0.8258610957174142</v>
+        <v>0.7409822322664468</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.01505871964118555</v>
+        <v>0.09543419963078037</v>
       </c>
       <c r="M22">
-        <v>4.775078506270717</v>
+        <v>1.742299254765271</v>
       </c>
       <c r="N22">
-        <v>6.632174743779842</v>
+        <v>2.643191803965806</v>
       </c>
       <c r="O22">
-        <v>5.199235639093729</v>
+        <v>3.10028377393337</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2300425904794423</v>
+        <v>0.3236965582623412</v>
       </c>
       <c r="D23">
-        <v>0.01011314286127529</v>
+        <v>0.01207836294711839</v>
       </c>
       <c r="E23">
-        <v>0.02174279719031524</v>
+        <v>0.1116989147117771</v>
       </c>
       <c r="F23">
-        <v>1.638418584032962</v>
+        <v>0.9274849658694109</v>
       </c>
       <c r="G23">
-        <v>1.592924340606743</v>
+        <v>0.7891441884279971</v>
       </c>
       <c r="H23">
-        <v>0.7975702041063357</v>
+        <v>0.7364861895381125</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.01584130302895126</v>
+        <v>0.09613120397173525</v>
       </c>
       <c r="M23">
-        <v>4.602681270518445</v>
+        <v>1.688409473802551</v>
       </c>
       <c r="N23">
-        <v>6.412257735805895</v>
+        <v>2.571570645921668</v>
       </c>
       <c r="O23">
-        <v>5.001226275554814</v>
+        <v>3.062400972756734</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2045151444153532</v>
+        <v>0.323611966794644</v>
       </c>
       <c r="D24">
-        <v>0.009281098108957053</v>
+        <v>0.01179392947449287</v>
       </c>
       <c r="E24">
-        <v>0.02323594289760322</v>
+        <v>0.1148925843193922</v>
       </c>
       <c r="F24">
-        <v>1.397585281825215</v>
+        <v>0.8787535782530824</v>
       </c>
       <c r="G24">
-        <v>1.351924060609178</v>
+        <v>0.739460392735225</v>
       </c>
       <c r="H24">
-        <v>0.693829693415978</v>
+        <v>0.7202034555027126</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.01911769369216287</v>
+        <v>0.09889271278996681</v>
       </c>
       <c r="M24">
-        <v>3.950910361642357</v>
+        <v>1.483871121437147</v>
       </c>
       <c r="N24">
-        <v>5.58231618989663</v>
+        <v>2.300406544217992</v>
       </c>
       <c r="O24">
-        <v>4.272450033033749</v>
+        <v>2.922414939548673</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1798500283288149</v>
+        <v>0.3243747667145414</v>
       </c>
       <c r="D25">
-        <v>0.008385334696601632</v>
+        <v>0.01148564298446964</v>
       </c>
       <c r="E25">
-        <v>0.02581171556340589</v>
+        <v>0.1186777847563238</v>
       </c>
       <c r="F25">
-        <v>1.149251117530554</v>
+        <v>0.8283642148182651</v>
       </c>
       <c r="G25">
-        <v>1.103662032972494</v>
+        <v>0.6878162344786176</v>
       </c>
       <c r="H25">
-        <v>0.5880656790691887</v>
+        <v>0.70422569664305</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.02325169035582242</v>
+        <v>0.1021304023746286</v>
       </c>
       <c r="M25">
-        <v>3.249277254679313</v>
+        <v>1.262404802415418</v>
       </c>
       <c r="N25">
-        <v>4.692198637700642</v>
+        <v>2.008261178884936</v>
       </c>
       <c r="O25">
-        <v>3.523934235920478</v>
+        <v>2.778810398481596</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_243/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_243/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3256646321388814</v>
+        <v>0.1637255862107594</v>
       </c>
       <c r="D2">
-        <v>0.01125752210194619</v>
+        <v>0.007724963719642375</v>
       </c>
       <c r="E2">
-        <v>0.1217552071829093</v>
+        <v>0.0284154754210979</v>
       </c>
       <c r="F2">
-        <v>0.7931065201222935</v>
+        <v>0.9741159289978469</v>
       </c>
       <c r="G2">
-        <v>0.6514338298070754</v>
+        <v>0.9286870276151404</v>
       </c>
       <c r="H2">
-        <v>0.6938152394459394</v>
+        <v>0.5144323392239158</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1047364062361815</v>
+        <v>0.02675055799202219</v>
       </c>
       <c r="M2">
-        <v>1.098681838835375</v>
+        <v>2.732855194127353</v>
       </c>
       <c r="N2">
-        <v>1.793565731190284</v>
+        <v>4.039975140443374</v>
       </c>
       <c r="O2">
-        <v>2.679343611211209</v>
+        <v>2.998210682232639</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3269899379945969</v>
+        <v>0.1538744628335138</v>
       </c>
       <c r="D3">
-        <v>0.0111022946356627</v>
+        <v>0.00727610611356333</v>
       </c>
       <c r="E3">
-        <v>0.1240207849380939</v>
+        <v>0.03056576866525962</v>
       </c>
       <c r="F3">
-        <v>0.7703493223745141</v>
+        <v>0.8592904584956784</v>
       </c>
       <c r="G3">
-        <v>0.6277865032679273</v>
+        <v>0.8139891069959333</v>
       </c>
       <c r="H3">
-        <v>0.6875998781628567</v>
+        <v>0.4667152757121755</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1066407583515812</v>
+        <v>0.029378085253839</v>
       </c>
       <c r="M3">
-        <v>0.9873498382050201</v>
+        <v>2.38256239151481</v>
       </c>
       <c r="N3">
-        <v>1.648381501539035</v>
+        <v>3.599403245264341</v>
       </c>
       <c r="O3">
-        <v>2.615801535586371</v>
+        <v>2.654701208039626</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3280252179163341</v>
+        <v>0.1482982699199198</v>
       </c>
       <c r="D4">
-        <v>0.01100670368832724</v>
+        <v>0.006999674317574645</v>
       </c>
       <c r="E4">
-        <v>0.1255002352143997</v>
+        <v>0.03205938606798409</v>
       </c>
       <c r="F4">
-        <v>0.7569334786185493</v>
+        <v>0.7904105800780314</v>
       </c>
       <c r="G4">
-        <v>0.6137601379654853</v>
+        <v>0.7451827556487842</v>
       </c>
       <c r="H4">
-        <v>0.6841965732360364</v>
+        <v>0.4383568607116501</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1078781147655175</v>
+        <v>0.03110941323023653</v>
       </c>
       <c r="M4">
-        <v>0.9188200035312377</v>
+        <v>2.167212280457989</v>
       </c>
       <c r="N4">
-        <v>1.559417443217882</v>
+        <v>3.329455276119774</v>
       </c>
       <c r="O4">
-        <v>2.578681299817674</v>
+        <v>2.449169334811103</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3285026734227614</v>
+        <v>0.1461365797269281</v>
       </c>
       <c r="D5">
-        <v>0.01096768421183825</v>
+        <v>0.006886799155177314</v>
       </c>
       <c r="E5">
-        <v>0.1261252826731125</v>
+        <v>0.0327092494746406</v>
       </c>
       <c r="F5">
-        <v>0.751606110585783</v>
+        <v>0.7627108057295828</v>
       </c>
       <c r="G5">
-        <v>0.6081677544764972</v>
+        <v>0.717509781959734</v>
       </c>
       <c r="H5">
-        <v>0.6829134068727996</v>
+        <v>0.4270180411213289</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1083994460922746</v>
+        <v>0.03184343034928894</v>
       </c>
       <c r="M5">
-        <v>0.8908530145642288</v>
+        <v>2.07937390033463</v>
       </c>
       <c r="N5">
-        <v>1.523213347888429</v>
+        <v>3.219573557471193</v>
       </c>
       <c r="O5">
-        <v>2.564029542699529</v>
+        <v>2.366641144456366</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3285853068774856</v>
+        <v>0.1457840864099609</v>
       </c>
       <c r="D6">
-        <v>0.010961201261658</v>
+        <v>0.006868042201178426</v>
       </c>
       <c r="E6">
-        <v>0.1262304078454166</v>
+        <v>0.03281957998253571</v>
       </c>
       <c r="F6">
-        <v>0.7507299307017377</v>
+        <v>0.7581324940381933</v>
       </c>
       <c r="G6">
-        <v>0.6072465851927262</v>
+        <v>0.7129356748224041</v>
       </c>
       <c r="H6">
-        <v>0.6827065979625786</v>
+        <v>0.4251478419589887</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1084870448950515</v>
+        <v>0.03196700027997679</v>
       </c>
       <c r="M6">
-        <v>0.8862067467534729</v>
+        <v>2.064783110985076</v>
       </c>
       <c r="N6">
-        <v>1.517204801562428</v>
+        <v>3.201334805188651</v>
       </c>
       <c r="O6">
-        <v>2.561625279032029</v>
+        <v>2.353008008568736</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3280314322257993</v>
+        <v>0.1482686790100587</v>
       </c>
       <c r="D7">
-        <v>0.01100617771652956</v>
+        <v>0.006998152982031769</v>
       </c>
       <c r="E7">
-        <v>0.1255085751847158</v>
+        <v>0.03206798658545384</v>
       </c>
       <c r="F7">
-        <v>0.7568610667830455</v>
+        <v>0.7900355654907401</v>
       </c>
       <c r="G7">
-        <v>0.6136842179023319</v>
+        <v>0.7448081177980868</v>
       </c>
       <c r="H7">
-        <v>0.6841788482743283</v>
+        <v>0.4382030850788681</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1078850764178281</v>
+        <v>0.03111919862507762</v>
       </c>
       <c r="M7">
-        <v>0.9184429915554801</v>
+        <v>2.166028008295882</v>
       </c>
       <c r="N7">
-        <v>1.558928976037038</v>
+        <v>3.327972891767018</v>
       </c>
       <c r="O7">
-        <v>2.578481779589254</v>
+        <v>2.448051520999172</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3260755347638025</v>
+        <v>0.1602258160659744</v>
       </c>
       <c r="D8">
-        <v>0.01120406096328885</v>
+        <v>0.007570357357481683</v>
       </c>
       <c r="E8">
-        <v>0.1225179979496591</v>
+        <v>0.02911944945906075</v>
       </c>
       <c r="F8">
-        <v>0.7851439437247762</v>
+        <v>0.9341629787914201</v>
       </c>
       <c r="G8">
-        <v>0.6431775349374789</v>
+        <v>0.8887778292796185</v>
       </c>
       <c r="H8">
-        <v>0.6915863909422484</v>
+        <v>0.4977726177528865</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1053788857672817</v>
+        <v>0.02763130052210983</v>
       </c>
       <c r="M8">
-        <v>1.060331694352371</v>
+        <v>2.612121096556294</v>
       </c>
       <c r="N8">
-        <v>1.743471444944987</v>
+        <v>3.887937243436596</v>
       </c>
       <c r="O8">
-        <v>2.657040133589987</v>
+        <v>2.878572584185093</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3240042782072408</v>
+        <v>0.1878148483165916</v>
       </c>
       <c r="D9">
-        <v>0.01158967540727573</v>
+        <v>0.008687072200540769</v>
       </c>
       <c r="E9">
-        <v>0.1173574690164916</v>
+        <v>0.02482640247208323</v>
       </c>
       <c r="F9">
-        <v>0.8450497950826872</v>
+        <v>1.231570844819601</v>
       </c>
       <c r="G9">
-        <v>0.7049553397110628</v>
+        <v>1.185933981679284</v>
       </c>
       <c r="H9">
-        <v>0.709396879391619</v>
+        <v>0.6229685116185237</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1010052377591215</v>
+        <v>0.02178459405873667</v>
       </c>
       <c r="M9">
-        <v>1.337112848595339</v>
+        <v>3.485532039302868</v>
       </c>
       <c r="N9">
-        <v>2.106614947438516</v>
+        <v>4.991468100942882</v>
       </c>
       <c r="O9">
-        <v>2.826204250012438</v>
+        <v>3.771691180067876</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3235674214380992</v>
+        <v>0.2111961934544979</v>
       </c>
       <c r="D10">
-        <v>0.01187125436973346</v>
+        <v>0.009506666117335527</v>
       </c>
       <c r="E10">
-        <v>0.1139988574648036</v>
+        <v>0.02274852942529648</v>
       </c>
       <c r="F10">
-        <v>0.8918079835397492</v>
+        <v>1.461944587747169</v>
       </c>
       <c r="G10">
-        <v>0.752790963821667</v>
+        <v>1.416303176915648</v>
       </c>
       <c r="H10">
-        <v>0.7244977131446433</v>
+        <v>0.7214516933501045</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.09812276530411523</v>
+        <v>0.01817813210445429</v>
       </c>
       <c r="M10">
-        <v>1.539456627227068</v>
+        <v>4.12765256006297</v>
       </c>
       <c r="N10">
-        <v>2.37398452997229</v>
+        <v>5.807117789871313</v>
       </c>
       <c r="O10">
-        <v>2.959824487267838</v>
+        <v>4.466947916599167</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3236063077427076</v>
+        <v>0.2226511015667541</v>
       </c>
       <c r="D11">
-        <v>0.01199892609499287</v>
+        <v>0.009880096637509439</v>
       </c>
       <c r="E11">
-        <v>0.1125657059727239</v>
+        <v>0.02207752845123423</v>
       </c>
       <c r="F11">
-        <v>0.9136838764056563</v>
+        <v>1.570025415211319</v>
       </c>
       <c r="G11">
-        <v>0.7750940202518564</v>
+        <v>1.524457460008989</v>
       </c>
       <c r="H11">
-        <v>0.7318081516062023</v>
+        <v>0.7680076924580419</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.09688352189750304</v>
+        <v>0.01670723771903582</v>
       </c>
       <c r="M11">
-        <v>1.631266146435351</v>
+        <v>4.420192993844083</v>
       </c>
       <c r="N11">
-        <v>2.495701865710714</v>
+        <v>6.179634310471329</v>
       </c>
       <c r="O11">
-        <v>3.022666468516093</v>
+        <v>4.794002837576556</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3236553619494487</v>
+        <v>0.2271194990892411</v>
       </c>
       <c r="D12">
-        <v>0.01204720702078887</v>
+        <v>0.01002167159804301</v>
       </c>
       <c r="E12">
-        <v>0.1120366948078901</v>
+        <v>0.02186657840108985</v>
       </c>
       <c r="F12">
-        <v>0.9220553050908507</v>
+        <v>1.611489045627309</v>
       </c>
       <c r="G12">
-        <v>0.783618290089521</v>
+        <v>1.565963198939954</v>
       </c>
       <c r="H12">
-        <v>0.734640036999366</v>
+        <v>0.7859210410353796</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.09642463015339331</v>
+        <v>0.01617649333633864</v>
       </c>
       <c r="M12">
-        <v>1.665995493411202</v>
+        <v>4.531063495439284</v>
       </c>
       <c r="N12">
-        <v>2.54180213172998</v>
+        <v>6.320943208469885</v>
       </c>
       <c r="O12">
-        <v>3.046760836045053</v>
+        <v>4.919609096643114</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3236432679117058</v>
+        <v>0.2261511196056176</v>
       </c>
       <c r="D13">
-        <v>0.01203681185804584</v>
+        <v>0.009991172100175305</v>
       </c>
       <c r="E13">
-        <v>0.1121500166705092</v>
+        <v>0.02191002910713102</v>
       </c>
       <c r="F13">
-        <v>0.9202484691975457</v>
+        <v>1.602534203831979</v>
       </c>
       <c r="G13">
-        <v>0.7817789314794084</v>
+        <v>1.556998593976829</v>
       </c>
       <c r="H13">
-        <v>0.7340273093564633</v>
+        <v>0.7820499397845992</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.09652299846802137</v>
+        <v>0.01628960006323865</v>
       </c>
       <c r="M13">
-        <v>1.658517592968195</v>
+        <v>4.507180964362547</v>
       </c>
       <c r="N13">
-        <v>2.531873302547183</v>
+        <v>6.290498352070244</v>
       </c>
       <c r="O13">
-        <v>3.041558426959682</v>
+        <v>4.892475852339544</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3236096545435458</v>
+        <v>0.2230160222104729</v>
       </c>
       <c r="D14">
-        <v>0.01200289953896316</v>
+        <v>0.009891740269093674</v>
       </c>
       <c r="E14">
-        <v>0.1125219090647676</v>
+        <v>0.02205928646859334</v>
       </c>
       <c r="F14">
-        <v>0.9143708425951615</v>
+        <v>1.573425529212315</v>
       </c>
       <c r="G14">
-        <v>0.7757937386817275</v>
+        <v>1.527860730863637</v>
       </c>
       <c r="H14">
-        <v>0.7320398573035618</v>
+        <v>0.7694755616203111</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.09684556034711278</v>
+        <v>0.01666303582260831</v>
       </c>
       <c r="M14">
-        <v>1.634124106424579</v>
+        <v>4.429312357526314</v>
       </c>
       <c r="N14">
-        <v>2.49949441552809</v>
+        <v>6.191254767815906</v>
       </c>
       <c r="O14">
-        <v>3.024642755575428</v>
+        <v>4.804300054834755</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3235935407664243</v>
+        <v>0.2211131056711935</v>
       </c>
       <c r="D15">
-        <v>0.01198211857109399</v>
+        <v>0.009830859549399662</v>
       </c>
       <c r="E15">
-        <v>0.1127514892455563</v>
+        <v>0.02215644474745204</v>
       </c>
       <c r="F15">
-        <v>0.9107820355081486</v>
+        <v>1.555667390779547</v>
       </c>
       <c r="G15">
-        <v>0.7721378871143827</v>
+        <v>1.510086683167032</v>
       </c>
       <c r="H15">
-        <v>0.7308307706301491</v>
+        <v>0.7618113002325231</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.09704449180687647</v>
+        <v>0.01689525211302723</v>
       </c>
       <c r="M15">
-        <v>1.619177501565929</v>
+        <v>4.381628466170895</v>
       </c>
       <c r="N15">
-        <v>2.479662398605569</v>
+        <v>6.130498147167089</v>
       </c>
       <c r="O15">
-        <v>3.014320206145214</v>
+        <v>4.750525227324545</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.323569675219602</v>
+        <v>0.2104651432749307</v>
       </c>
       <c r="D16">
-        <v>0.01186290182552341</v>
+        <v>0.009482279898861634</v>
       </c>
       <c r="E16">
-        <v>0.1140944292346324</v>
+        <v>0.02279820942462507</v>
       </c>
       <c r="F16">
-        <v>0.8903905625460027</v>
+        <v>1.454952621380912</v>
       </c>
       <c r="G16">
-        <v>0.7513443714357493</v>
+        <v>1.409308214842213</v>
       </c>
       <c r="H16">
-        <v>0.7240288469284621</v>
+        <v>0.7184470727855228</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.09820520415882328</v>
+        <v>0.01827782803382405</v>
       </c>
       <c r="M16">
-        <v>1.533451641228893</v>
+        <v>4.108545535206432</v>
       </c>
       <c r="N16">
-        <v>2.366031447033038</v>
+        <v>5.782805365149102</v>
       </c>
       <c r="O16">
-        <v>2.955759155130806</v>
+        <v>4.445808324201892</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3236160070926104</v>
+        <v>0.2041515046590092</v>
       </c>
       <c r="D17">
-        <v>0.011789654931043</v>
+        <v>0.009268640730301314</v>
       </c>
       <c r="E17">
-        <v>0.1149425869400522</v>
+        <v>0.02326469468764714</v>
       </c>
       <c r="F17">
-        <v>0.8780364230754003</v>
+        <v>1.394051663969833</v>
       </c>
       <c r="G17">
-        <v>0.7387275626851419</v>
+        <v>1.348389852017817</v>
       </c>
       <c r="H17">
-        <v>0.7199691541858897</v>
+        <v>0.692315426253316</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.09893572647128579</v>
+        <v>0.0191707280611535</v>
       </c>
       <c r="M17">
-        <v>1.480798766354724</v>
+        <v>3.941149307501021</v>
       </c>
       <c r="N17">
-        <v>2.296342383404124</v>
+        <v>5.569907035201993</v>
       </c>
       <c r="O17">
-        <v>2.920361958488229</v>
+        <v>4.261776932231328</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3236650117817561</v>
+        <v>0.2005962802075629</v>
       </c>
       <c r="D18">
-        <v>0.01174748603218134</v>
+        <v>0.00914581121627478</v>
       </c>
       <c r="E18">
-        <v>0.1154393337368829</v>
+        <v>0.02355857775102876</v>
       </c>
       <c r="F18">
-        <v>0.870987600827732</v>
+        <v>1.359327876603203</v>
       </c>
       <c r="G18">
-        <v>0.7315217249786485</v>
+        <v>1.313662936117765</v>
       </c>
       <c r="H18">
-        <v>0.7176756246110472</v>
+        <v>0.6774484015087694</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.09936267958444311</v>
+        <v>0.01970015480191023</v>
       </c>
       <c r="M18">
-        <v>1.450492016777929</v>
+        <v>3.844906569491414</v>
       </c>
       <c r="N18">
-        <v>2.256267763270557</v>
+        <v>5.447590059117999</v>
       </c>
       <c r="O18">
-        <v>2.900195988774328</v>
+        <v>4.156928007365707</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3236854386886279</v>
+        <v>0.1994052551405332</v>
       </c>
       <c r="D19">
-        <v>0.0117332017902676</v>
+        <v>0.009104229710789724</v>
       </c>
       <c r="E19">
-        <v>0.1156090515069712</v>
+        <v>0.02366236554403223</v>
       </c>
       <c r="F19">
-        <v>0.8686107585181446</v>
+        <v>1.347621506728515</v>
       </c>
       <c r="G19">
-        <v>0.7290906963713439</v>
+        <v>1.30195659040109</v>
       </c>
       <c r="H19">
-        <v>0.7169061972325892</v>
+        <v>0.6724418104288645</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.09950840150415807</v>
+        <v>0.01988207863661806</v>
       </c>
       <c r="M19">
-        <v>1.440226941783024</v>
+        <v>3.812326331290876</v>
       </c>
       <c r="N19">
-        <v>2.242700810086319</v>
+        <v>5.406198121620491</v>
       </c>
       <c r="O19">
-        <v>2.893401333308702</v>
+        <v>4.121593880185458</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3236087600837578</v>
+        <v>0.2048156241349517</v>
       </c>
       <c r="D20">
-        <v>0.01179745628564532</v>
+        <v>0.009291377279932789</v>
       </c>
       <c r="E20">
-        <v>0.1148513765232364</v>
+        <v>0.02321236390785231</v>
       </c>
       <c r="F20">
-        <v>0.8793456447120036</v>
+        <v>1.40050268282809</v>
       </c>
       <c r="G20">
-        <v>0.7400653591692503</v>
+        <v>1.354841987694698</v>
       </c>
       <c r="H20">
-        <v>0.7203970192811084</v>
+        <v>0.6950800767654925</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.09885725962883996</v>
+        <v>0.01907402355170618</v>
       </c>
       <c r="M20">
-        <v>1.48640607322973</v>
+        <v>3.958964672056709</v>
       </c>
       <c r="N20">
-        <v>2.303760035741561</v>
+        <v>5.592556067635655</v>
       </c>
       <c r="O20">
-        <v>2.924110005931993</v>
+        <v>4.281262338819431</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3236185946527854</v>
+        <v>0.2239332210272664</v>
       </c>
       <c r="D21">
-        <v>0.01201286223054154</v>
+        <v>0.009920940607951678</v>
       </c>
       <c r="E21">
-        <v>0.1124123030544153</v>
+        <v>0.02201424398202612</v>
       </c>
       <c r="F21">
-        <v>0.9160948655848102</v>
+        <v>1.581960374500042</v>
       </c>
       <c r="G21">
-        <v>0.7775495973579609</v>
+        <v>1.53640373240782</v>
       </c>
       <c r="H21">
-        <v>0.732621893241884</v>
+        <v>0.7731610014195098</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.09675053409068468</v>
+        <v>0.01655262075971287</v>
       </c>
       <c r="M21">
-        <v>1.641290088677991</v>
+        <v>4.452181513825636</v>
       </c>
       <c r="N21">
-        <v>2.50900468162348</v>
+        <v>6.220398085854754</v>
       </c>
       <c r="O21">
-        <v>3.029603212090478</v>
+        <v>4.830149969448769</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3238251912401893</v>
+        <v>0.237196183749802</v>
       </c>
       <c r="D22">
-        <v>0.01215325782645138</v>
+        <v>0.01033340845361863</v>
       </c>
       <c r="E22">
-        <v>0.11089807099982</v>
+        <v>0.02148462414864305</v>
       </c>
       <c r="F22">
-        <v>0.9406228505335434</v>
+        <v>1.703710317476776</v>
       </c>
       <c r="G22">
-        <v>0.8025060510166213</v>
+        <v>1.658306859909402</v>
       </c>
       <c r="H22">
-        <v>0.7409822322664468</v>
+        <v>0.8258610957175279</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.09543419963078037</v>
+        <v>0.01505871964123173</v>
       </c>
       <c r="M22">
-        <v>1.742299254765271</v>
+        <v>4.775078506270717</v>
       </c>
       <c r="N22">
-        <v>2.643191803965806</v>
+        <v>6.632174743779842</v>
       </c>
       <c r="O22">
-        <v>3.10028377393337</v>
+        <v>5.199235639093672</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3236965582623412</v>
+        <v>0.2300425904797834</v>
       </c>
       <c r="D23">
-        <v>0.01207836294711839</v>
+        <v>0.01011314286138187</v>
       </c>
       <c r="E23">
-        <v>0.1116989147117771</v>
+        <v>0.02174279719029037</v>
       </c>
       <c r="F23">
-        <v>0.9274849658694109</v>
+        <v>1.638418584032962</v>
       </c>
       <c r="G23">
-        <v>0.7891441884279971</v>
+        <v>1.592924340606743</v>
       </c>
       <c r="H23">
-        <v>0.7364861895381125</v>
+        <v>0.7975702041062505</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.09613120397173525</v>
+        <v>0.01584130302889442</v>
       </c>
       <c r="M23">
-        <v>1.688409473802551</v>
+        <v>4.602681270518445</v>
       </c>
       <c r="N23">
-        <v>2.571570645921668</v>
+        <v>6.412257735805781</v>
       </c>
       <c r="O23">
-        <v>3.062400972756734</v>
+        <v>5.00122627555487</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.323611966794644</v>
+        <v>0.2045151444152395</v>
       </c>
       <c r="D24">
-        <v>0.01179392947449287</v>
+        <v>0.00928109810907074</v>
       </c>
       <c r="E24">
-        <v>0.1148925843193922</v>
+        <v>0.02323594289760678</v>
       </c>
       <c r="F24">
-        <v>0.8787535782530824</v>
+        <v>1.397585281825215</v>
       </c>
       <c r="G24">
-        <v>0.739460392735225</v>
+        <v>1.351924060609122</v>
       </c>
       <c r="H24">
-        <v>0.7202034555027126</v>
+        <v>0.693829693415978</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.09889271278996681</v>
+        <v>0.01911769369217176</v>
       </c>
       <c r="M24">
-        <v>1.483871121437147</v>
+        <v>3.950910361642343</v>
       </c>
       <c r="N24">
-        <v>2.300406544217992</v>
+        <v>5.582316189896744</v>
       </c>
       <c r="O24">
-        <v>2.922414939548673</v>
+        <v>4.272450033033749</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3243747667145414</v>
+        <v>0.1798500283288007</v>
       </c>
       <c r="D25">
-        <v>0.01148564298446964</v>
+        <v>0.00838533469670999</v>
       </c>
       <c r="E25">
-        <v>0.1186777847563238</v>
+        <v>0.025811715563405</v>
       </c>
       <c r="F25">
-        <v>0.8283642148182651</v>
+        <v>1.149251117530568</v>
       </c>
       <c r="G25">
-        <v>0.6878162344786176</v>
+        <v>1.103662032972494</v>
       </c>
       <c r="H25">
-        <v>0.70422569664305</v>
+        <v>0.5880656790691603</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1021304023746286</v>
+        <v>0.02325169035585617</v>
       </c>
       <c r="M25">
-        <v>1.262404802415418</v>
+        <v>3.249277254679285</v>
       </c>
       <c r="N25">
-        <v>2.008261178884936</v>
+        <v>4.692198637700528</v>
       </c>
       <c r="O25">
-        <v>2.778810398481596</v>
+        <v>3.523934235920478</v>
       </c>
     </row>
   </sheetData>
